--- a/xlsx/a69_f35_bUPPachuca.xlsx
+++ b/xlsx/a69_f35_bUPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\RESPALDO\TRANSPARENCIA UPP\2023\SIPOT\3er Trimestres 2023\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\modificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C71C07-EBEE-4D9D-9B45-21D0CA9B0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9FAEF7-F0AA-4423-9C05-F76CE610F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -139,14 +139,17 @@
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>La Universidad Politécnica de Pachuca, no ha recibido las recomendaciones de organismos garantes de derechos humanos casos especiales.</t>
+    <t>La Universidad Politécnica de Pachuca, no ha recibido casos especiales emitidos por la CNDH u otros organismos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -159,18 +162,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,30 +212,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,44 +288,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -359,9 +375,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -408,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,166 +433,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -584,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +593,7 @@
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -610,38 +602,38 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -720,20 +712,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -773,31 +765,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2" t="s">
+      <c r="B8" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="J8" s="6">
+        <v>45301</v>
+      </c>
+      <c r="K8" s="6">
+        <v>45301</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -812,6 +804,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>